--- a/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6273B1B2-9136-4280-9CF3-5A94BC194B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2F0F3A-D52D-43E4-BE8F-812F70900F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,15 @@
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -304,10 +313,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ex:0000-000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ClCode1,ClCode2,ClNo,Seq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -373,6 +378,10 @@
   </si>
   <si>
     <t>OtherCity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex：0000-000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -953,7 +962,7 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1001,7 +1010,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -1162,7 +1171,7 @@
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1176,7 +1185,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="19">
         <v>2</v>
@@ -1189,20 +1198,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="18">
         <v>40</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1216,7 +1225,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="19">
         <v>2</v>
@@ -1229,20 +1238,20 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="18">
         <v>40</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1275,7 +1284,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="19">
         <v>3</v>
@@ -1288,20 +1297,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="18">
         <v>40</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1829,7 +1838,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1840,29 +1849,29 @@
         <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
